--- a/scripts/Classification_Regex_Rules.xlsx
+++ b/scripts/Classification_Regex_Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanes-my.sharepoint.com/personal/hannah_allen_hanes_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{981780C0-8B4E-4E8B-B7F5-B5A0531F552D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3254E2E5-3257-48D4-85AF-1A8D846E9F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="2960" yWindow="1440" windowWidth="16240" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,21 +38,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={14A5AD5F-52AF-44B2-A68C-E3AD347B086D}</author>
     <author>tc={C0F71F10-17AD-4779-A5DB-87ED0C2A2DB4}</author>
     <author>tc={E2066E32-852F-4291-9B27-8A59BB79C6DD}</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{14A5AD5F-52AF-44B2-A68C-E3AD347B086D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Discuss what naming conventions would be best: would it be better to see an acronym (BOM) or full name (Bill of Materials) for classifications? 
-Note: Full name could get lengthy pretty quick</t>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{C0F71F10-17AD-4779-A5DB-87ED0C2A2DB4}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{C0F71F10-17AD-4779-A5DB-87ED0C2A2DB4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -60,7 +50,7 @@
     This REGEX for BOM has been tested for ONLY the "BOM" acronym, not the other keywords listed</t>
       </text>
     </comment>
-    <comment ref="G4" authorId="2" shapeId="0" xr:uid="{E2066E32-852F-4291-9B27-8A59BB79C6DD}">
+    <comment ref="G4" authorId="1" shapeId="0" xr:uid="{E2066E32-852F-4291-9B27-8A59BB79C6DD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -73,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="84">
   <si>
     <t>Classification_Name</t>
   </si>
@@ -99,6 +89,9 @@
     <t>Common_Abbreviations</t>
   </si>
   <si>
+    <t>Alternative Unit of Measure</t>
+  </si>
+  <si>
     <t>Alternative Unit of Measure for Stockkeeping Unit</t>
   </si>
   <si>
@@ -156,6 +149,9 @@
     <t>SECT</t>
   </si>
   <si>
+    <t>International Article Number</t>
+  </si>
+  <si>
     <t>International Article Number (GTIN/EAN/UPC)</t>
   </si>
   <si>
@@ -180,6 +176,9 @@
     <t>Issuing Plant, Issuing Site</t>
   </si>
   <si>
+    <t>Material Description Short Text</t>
+  </si>
+  <si>
     <t>Material Description (Short Text)</t>
   </si>
   <si>
@@ -198,13 +197,13 @@
     <t>MERCH, GRP, HIER, MAT</t>
   </si>
   <si>
+    <t>Material Group Packaging Materials</t>
+  </si>
+  <si>
     <t>Material Group: Packaging Materials</t>
   </si>
   <si>
     <t>/\b.*(Material|MAT)[^A-Za-z0-9]?(Group|GRP)[^A-Za-z0-9]?(Packaging|PACK|PKG)[^A-Za-z0-9]?(Materials|MAT).*\b/|(Material|MAT)[^A-Za-z0-9]?(Group|GRP)[^A-Za-z0-9]?(Packaging|PACK|PKG)[^A-Za-z0-9]?(Materials|MAT)</t>
-  </si>
-  <si>
-    <t>Material Group Packaging Materials</t>
   </si>
   <si>
     <t>MAT, PACK, PKG, GRP</t>
@@ -416,7 +415,6 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Allen, Hannah" id="{66AF2368-4DD1-4ADA-B3B2-DB6C58E65C87}" userId="S::Hannah.Allen@hanes.com::e57535ac-cf98-4b00-b4c5-2654d6e2398e" providerId="AD"/>
   <person displayName="Allen, Hannah" id="{80975D2E-43DF-484D-9429-6083E4C6DCBE}" userId="S::hannah.allen@hanes.com::e57535ac-cf98-4b00-b4c5-2654d6e2398e" providerId="AD"/>
 </personList>
 </file>
@@ -684,10 +682,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A4" dT="2023-06-06T22:09:54.95" personId="{66AF2368-4DD1-4ADA-B3B2-DB6C58E65C87}" id="{14A5AD5F-52AF-44B2-A68C-E3AD347B086D}">
-    <text>Discuss what naming conventions would be best: would it be better to see an acronym (BOM) or full name (Bill of Materials) for classifications? 
-Note: Full name could get lengthy pretty quick</text>
-  </threadedComment>
   <threadedComment ref="F4" dT="2023-06-06T22:52:33.81" personId="{80975D2E-43DF-484D-9429-6083E4C6DCBE}" id="{C0F71F10-17AD-4779-A5DB-87ED0C2A2DB4}">
     <text>This REGEX for BOM has been tested for ONLY the "BOM" acronym, not the other keywords listed</text>
   </threadedComment>
@@ -702,8 +696,8 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -747,459 +741,522 @@
       </c>
     </row>
     <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1210,12 +1267,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010091DB3BAA1812B841B2E36C77F2714D7B" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="38ab6503e57958b987f1af7c733c0791">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1dd49257-007c-4c3d-8a37-b37e3fc9fd3c" xmlns:ns3="0a0cce24-4f5d-4807-bc09-f8d701f4a390" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f65dc122b1df5bb2422e6558850f9c9" ns2:_="" ns3:_="">
     <xsd:import namespace="1dd49257-007c-4c3d-8a37-b37e3fc9fd3c"/>
@@ -1386,7 +1437,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1395,14 +1446,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAAA4BC1-89CB-4E2B-8F90-EBA333F1264D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5AE56B-F4F4-4955-BBD1-957CF715B380}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD5AE56B-F4F4-4955-BBD1-957CF715B380}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D5219C5-5927-4758-89E4-E8108EBC3D2D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D5219C5-5927-4758-89E4-E8108EBC3D2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAAA4BC1-89CB-4E2B-8F90-EBA333F1264D}"/>
 </file>